--- a/Utilities/titles/classification_titles.xlsx
+++ b/Utilities/titles/classification_titles.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FTT_Stand_Alone_Referee\Utilities\titles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofexeteruk-my.sharepoint.com/personal/ae476_exeter_ac_uk/Documents/Documents/GitHub/FTT_StandAlone/Utilities/titles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B7B65F-1EE3-491F-BCC3-D8447C1EA81A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="82" documentId="13_ncr:1_{43B7B65F-1EE3-491F-BCC3-D8447C1EA81A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A16BC37-EA45-4C43-8AE2-E9CDA1235004}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="580" windowWidth="22580" windowHeight="14460" firstSheet="6" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="598">
   <si>
     <t>Full name</t>
   </si>
@@ -592,15 +592,9 @@
     <t>13 Solar Thermal</t>
   </si>
   <si>
-    <t>1 Investment cost mean</t>
-  </si>
-  <si>
     <t>2 Investment cost SD</t>
   </si>
   <si>
-    <t>3 O&amp;M cost mean</t>
-  </si>
-  <si>
     <t>4 O&amp;M cost SD</t>
   </si>
   <si>
@@ -634,24 +628,6 @@
     <t>14 Capacity factor SD</t>
   </si>
   <si>
-    <t>15 Empty</t>
-  </si>
-  <si>
-    <t>16 Empty</t>
-  </si>
-  <si>
-    <t>17 Empty</t>
-  </si>
-  <si>
-    <t>18 Empty</t>
-  </si>
-  <si>
-    <t>19 Empty</t>
-  </si>
-  <si>
-    <t>20 Empty</t>
-  </si>
-  <si>
     <t>1 Male Children</t>
   </si>
   <si>
@@ -1841,6 +1817,42 @@
   </si>
   <si>
     <t>25 Marine bunkers</t>
+  </si>
+  <si>
+    <t>1 Inv cost mean (EUR/Kw)</t>
+  </si>
+  <si>
+    <t>2 Inv Cost SD</t>
+  </si>
+  <si>
+    <t>3 O&amp;M mean (EUR/kW)</t>
+  </si>
+  <si>
+    <t>4 O&amp;M SD</t>
+  </si>
+  <si>
+    <t>7 Investment LR</t>
+  </si>
+  <si>
+    <t>10 Fuel cost  (EUR/kWh)</t>
+  </si>
+  <si>
+    <t>15 Emission factor</t>
+  </si>
+  <si>
+    <t>16 Payback time, mean</t>
+  </si>
+  <si>
+    <t>17 Payback time, SD</t>
+  </si>
+  <si>
+    <t>18 UD/FD</t>
+  </si>
+  <si>
+    <t>19 RES calc</t>
+  </si>
+  <si>
+    <t>20 Efficiency LR</t>
   </si>
 </sst>
 </file>
@@ -2792,6 +2804,10 @@
 </inkml:ink>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3093,7 +3109,7 @@
   <dimension ref="A6:H44"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3121,7 +3137,7 @@
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="16" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -3145,137 +3161,137 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="3" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="5"/>
       <c r="B13" s="3" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="5"/>
       <c r="B14" s="3" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="5"/>
       <c r="B15" s="3" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="3" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="5"/>
       <c r="B17" s="3" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
       <c r="B18" s="3" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
       <c r="B19" s="3" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="3" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="5"/>
       <c r="B21" s="3" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="5"/>
       <c r="B22" s="3" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="5"/>
       <c r="B23" s="3" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="5"/>
       <c r="B24" s="3" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="5"/>
       <c r="B25" s="3" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>11</v>
@@ -3285,7 +3301,7 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
       <c r="B26" s="3" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>8</v>
@@ -3296,7 +3312,7 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="5"/>
       <c r="B27" s="3" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>9</v>
@@ -3307,7 +3323,7 @@
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="5"/>
       <c r="B28" s="3" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>10</v>
@@ -3321,7 +3337,7 @@
         <v>12</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -4181,7 +4197,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4189,7 +4205,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -4197,7 +4213,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -4205,7 +4221,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -4213,7 +4229,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -4221,7 +4237,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -4229,7 +4245,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -4237,7 +4253,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -4245,7 +4261,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -4253,7 +4269,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -4261,7 +4277,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -4269,7 +4285,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -4277,7 +4293,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -4285,7 +4301,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -4293,7 +4309,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -4301,7 +4317,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -4309,7 +4325,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -4317,7 +4333,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -4325,7 +4341,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -4333,7 +4349,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -4341,7 +4357,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -4349,7 +4365,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -4357,7 +4373,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -4365,7 +4381,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -4595,7 +4611,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4603,7 +4619,7 @@
     </row>
     <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -4619,7 +4635,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -4635,7 +4651,7 @@
     </row>
     <row r="7" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="18" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -4651,7 +4667,7 @@
     </row>
     <row r="9" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="20" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -4659,7 +4675,7 @@
     </row>
     <row r="10" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="21" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -4667,7 +4683,7 @@
     </row>
     <row r="11" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="21" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -4675,7 +4691,7 @@
     </row>
     <row r="12" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="21" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -4683,7 +4699,7 @@
     </row>
     <row r="13" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="21" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -4691,7 +4707,7 @@
     </row>
     <row r="14" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="22" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -4699,7 +4715,7 @@
     </row>
     <row r="15" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="20" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -4707,7 +4723,7 @@
     </row>
     <row r="16" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="18" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -4715,7 +4731,7 @@
     </row>
     <row r="17" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="18" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -4723,7 +4739,7 @@
     </row>
     <row r="18" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="20" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -4731,7 +4747,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -4739,7 +4755,7 @@
     </row>
     <row r="20" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="20" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -4747,7 +4763,7 @@
     </row>
     <row r="21" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="20" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -4779,7 +4795,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4787,7 +4803,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -4875,7 +4891,7 @@
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -5008,12 +5024,12 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A21"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5027,7 +5043,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>177</v>
+        <v>586</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -5035,7 +5051,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>178</v>
+        <v>587</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -5043,7 +5059,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>179</v>
+        <v>588</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -5051,7 +5067,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>180</v>
+        <v>589</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -5059,7 +5075,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -5067,7 +5083,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -5075,7 +5091,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>183</v>
+        <v>590</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -5083,7 +5099,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -5091,7 +5107,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -5099,7 +5115,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>186</v>
+        <v>591</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -5107,7 +5123,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -5115,7 +5131,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -5123,7 +5139,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -5131,7 +5147,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -5139,7 +5155,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>191</v>
+        <v>592</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -5147,7 +5163,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>192</v>
+        <v>593</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -5155,7 +5171,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>193</v>
+        <v>594</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -5163,7 +5179,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>194</v>
+        <v>595</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -5171,7 +5187,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>195</v>
+        <v>596</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -5179,7 +5195,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>196</v>
+        <v>597</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -5215,7 +5231,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -5223,7 +5239,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -5231,7 +5247,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -5239,7 +5255,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -5247,7 +5263,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -5255,7 +5271,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -5263,7 +5279,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -5271,7 +5287,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -5279,7 +5295,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -5287,7 +5303,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -5295,7 +5311,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -5303,7 +5319,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -5311,7 +5327,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -5319,7 +5335,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -5327,7 +5343,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -5335,7 +5351,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -5343,7 +5359,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -5351,7 +5367,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -5359,7 +5375,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -5367,7 +5383,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -5375,7 +5391,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -5383,7 +5399,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -5391,7 +5407,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -5399,7 +5415,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -5433,106 +5449,106 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="B2" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="C2" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="B3" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="C3" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="B4" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="C4" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="B5" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="C5" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>555</v>
+      </c>
+      <c r="B6" t="s">
+        <v>559</v>
+      </c>
+      <c r="C6" t="s">
         <v>563</v>
-      </c>
-      <c r="B6" t="s">
-        <v>567</v>
-      </c>
-      <c r="C6" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="B7" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="C7" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="B8" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="C8" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="B9" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="C9" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="B10" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="C10" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
     </row>
   </sheetData>
@@ -5565,7 +5581,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -5573,7 +5589,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -5581,7 +5597,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -5589,7 +5605,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -5597,7 +5613,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -5605,7 +5621,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -5613,7 +5629,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -5621,7 +5637,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -5629,7 +5645,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -5637,7 +5653,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -5645,7 +5661,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -5653,7 +5669,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -5661,7 +5677,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -5669,7 +5685,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -5677,7 +5693,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -5685,7 +5701,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -5693,7 +5709,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -5701,7 +5717,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -5709,7 +5725,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -5717,7 +5733,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -5725,7 +5741,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -5733,7 +5749,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -5741,7 +5757,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -5749,7 +5765,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -5757,7 +5773,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -5765,7 +5781,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B27">
         <v>26</v>
@@ -5773,7 +5789,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="B28">
         <v>27</v>
@@ -5781,7 +5797,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="B29">
         <v>28</v>
@@ -5789,7 +5805,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B30">
         <v>29</v>
@@ -5797,7 +5813,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="B31">
         <v>30</v>
@@ -5805,7 +5821,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B32">
         <v>31</v>
@@ -5813,7 +5829,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B33">
         <v>32</v>
@@ -5821,7 +5837,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="B34">
         <v>33</v>
@@ -5829,7 +5845,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="B35">
         <v>34</v>
@@ -5837,7 +5853,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="B36">
         <v>35</v>
@@ -5845,7 +5861,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="B37">
         <v>36</v>
@@ -5853,7 +5869,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B38">
         <v>37</v>
@@ -5861,7 +5877,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B39">
         <v>38</v>
@@ -5869,7 +5885,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="B40">
         <v>39</v>
@@ -5877,7 +5893,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="B41">
         <v>40</v>
@@ -5885,7 +5901,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="B42">
         <v>41</v>
@@ -5893,7 +5909,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="B43">
         <v>42</v>
@@ -5901,7 +5917,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="B44">
         <v>43</v>
@@ -7009,7 +7025,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -7017,7 +7033,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -7025,7 +7041,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -7033,7 +7049,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -7041,7 +7057,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -7049,7 +7065,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -7057,7 +7073,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -7065,7 +7081,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -7073,7 +7089,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -7081,7 +7097,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -7117,7 +7133,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -7125,7 +7141,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -7133,7 +7149,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -7141,7 +7157,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -7149,7 +7165,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -7157,7 +7173,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -7165,7 +7181,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -7173,7 +7189,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -7181,7 +7197,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -7189,7 +7205,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -7197,7 +7213,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -7205,7 +7221,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -7213,7 +7229,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -7248,7 +7264,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -7256,7 +7272,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -7264,7 +7280,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -7272,7 +7288,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -7280,7 +7296,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -7288,7 +7304,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -7296,7 +7312,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -7304,7 +7320,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -7312,7 +7328,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -7320,7 +7336,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -7328,7 +7344,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -7336,7 +7352,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -7344,7 +7360,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -7352,7 +7368,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -7360,7 +7376,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -7376,7 +7392,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -7396,7 +7412,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -7404,7 +7420,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -7412,7 +7428,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -7420,7 +7436,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -7428,7 +7444,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -7436,7 +7452,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -7444,7 +7460,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -7452,7 +7468,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -7460,7 +7476,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -7468,7 +7484,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -7476,7 +7492,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -7484,7 +7500,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -7492,7 +7508,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -7500,7 +7516,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -7508,7 +7524,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -7516,7 +7532,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -7524,7 +7540,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -7532,7 +7548,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -7540,7 +7556,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -7548,7 +7564,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -7556,7 +7572,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -7564,7 +7580,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -7572,7 +7588,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -7580,7 +7596,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -7588,7 +7604,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -7604,14 +7620,14 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:B72"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -7624,119 +7640,119 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="B2" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="B3" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="B4" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="B5" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="B6" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="B7" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="B8" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="B9" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="B10" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="B11" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="B12" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="B13" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="B14" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
@@ -7744,151 +7760,151 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="B17" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="B18" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="B19" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="B20" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="B21" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="B22" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="B23" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="B24" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="B25" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="B26" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="B27" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="B30" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="B31" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="B32" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="B33" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="B34" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="B35" t="s">
         <v>2</v>
@@ -7896,304 +7912,304 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="B36" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="B37" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="B38" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="B39" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="B40" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="B41" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="B42" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="B43" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="B44" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="B45" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="B46" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="B47" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="B48" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="B49" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="B50" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="B51" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="B52" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="B53" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="B54" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="B55" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="B56" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="B57" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="B58" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B59" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="B60" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B61" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="B62" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="B63" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="B64" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="B65" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="B66" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B67" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="B68" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="B69" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="B70" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="B71" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="B72" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{3B2B9FEF-82E7-479E-BB9A-C13F50F190CD}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B33">
-      <sortCondition ref="B1"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B72">
+      <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8224,7 +8240,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -8232,7 +8248,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -8240,7 +8256,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -8248,7 +8264,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -8256,7 +8272,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -8264,7 +8280,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -8272,7 +8288,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -8280,7 +8296,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -8288,7 +8304,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -8296,7 +8312,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -8304,7 +8320,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -8312,7 +8328,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -8320,7 +8336,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -8328,7 +8344,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -8714,7 +8730,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -8722,7 +8738,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -8730,7 +8746,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -8738,7 +8754,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -8746,7 +8762,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -8754,7 +8770,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -8762,7 +8778,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -8770,7 +8786,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -8778,7 +8794,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -8786,7 +8802,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -8794,7 +8810,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -8802,7 +8818,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -8810,7 +8826,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -8818,7 +8834,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -8826,7 +8842,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -8834,7 +8850,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -8842,7 +8858,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -8850,7 +8866,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -8858,7 +8874,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -8866,7 +8882,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -8901,34 +8917,34 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="B2" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="B3" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="B4" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="B5" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">

--- a/Utilities/titles/classification_titles.xlsx
+++ b/Utilities/titles/classification_titles.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofexeteruk-my.sharepoint.com/personal/cl852_exeter_ac_uk/Documents/Documents/GitHub/FTT_StandAlone/Utilities/titles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofexeteruk-my.sharepoint.com/personal/f_j_m_m_nijsse_exeter_ac_uk/Documents/Documents/GitHub/FTT_StandAlone/Utilities/titles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="79" documentId="13_ncr:1_{21702BD4-B62F-4377-8B0D-0CBFF489688A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E081CEC5-542A-4D43-B703-81B82A322187}"/>
+  <xr:revisionPtr revIDLastSave="80" documentId="13_ncr:1_{21702BD4-B62F-4377-8B0D-0CBFF489688A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{676987B8-2DF6-4626-B941-4B9895B794EE}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="675" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="675" firstSheet="3" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -1819,9 +1819,6 @@
     <t>9 Energy use (MJ/vkm)</t>
   </si>
   <si>
-    <t>10 Loads (t/veh)</t>
-  </si>
-  <si>
     <t>11 Fuel use (l/100km or kwh/km)</t>
   </si>
   <si>
@@ -1988,6 +1985,9 @@
   </si>
   <si>
     <t>Bus</t>
+  </si>
+  <si>
+    <t>10 Loads (t or passengers/veh)</t>
   </si>
 </sst>
 </file>
@@ -12746,8 +12746,8 @@
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12837,7 +12837,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="18" t="s">
-        <v>585</v>
+        <v>641</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -12845,7 +12845,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="18" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -12861,7 +12861,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="20" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -12869,7 +12869,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="20" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -12877,7 +12877,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="18" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -12885,7 +12885,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="18" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -12893,7 +12893,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="20" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -17152,7 +17152,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -17160,7 +17160,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -17168,7 +17168,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -17176,7 +17176,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -17184,7 +17184,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -17192,7 +17192,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -17200,7 +17200,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -17208,7 +17208,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -17216,7 +17216,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -17224,7 +17224,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -17232,7 +17232,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -17240,7 +17240,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -17248,7 +17248,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -17256,7 +17256,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -17264,7 +17264,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -17272,7 +17272,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -17280,7 +17280,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -17288,7 +17288,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -17296,7 +17296,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -17304,7 +17304,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -17312,7 +17312,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -17320,7 +17320,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -17328,7 +17328,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -17336,7 +17336,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -17344,7 +17344,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -17352,7 +17352,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B27">
         <v>26</v>
@@ -17360,7 +17360,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B28">
         <v>27</v>
@@ -17368,7 +17368,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B29">
         <v>28</v>
@@ -17376,7 +17376,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B30">
         <v>29</v>
@@ -17384,7 +17384,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B31">
         <v>30</v>
@@ -17392,7 +17392,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B32">
         <v>31</v>
@@ -17400,7 +17400,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B33">
         <v>32</v>
@@ -17408,7 +17408,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B34">
         <v>33</v>
@@ -17416,7 +17416,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B35">
         <v>34</v>
@@ -17424,7 +17424,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B36">
         <v>35</v>
@@ -17432,7 +17432,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B37">
         <v>36</v>
@@ -17440,7 +17440,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B38">
         <v>37</v>
@@ -17448,7 +17448,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B39">
         <v>38</v>
@@ -17456,7 +17456,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B40">
         <v>39</v>
@@ -17464,7 +17464,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B41">
         <v>40</v>
@@ -17472,7 +17472,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B42">
         <v>41</v>
@@ -17480,7 +17480,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B43">
         <v>42</v>
@@ -17488,7 +17488,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B44">
         <v>43</v>
@@ -17496,7 +17496,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B45">
         <v>44</v>
@@ -17504,7 +17504,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B46">
         <v>45</v>
@@ -17519,7 +17519,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A0269F4-FDFD-4B25-A024-0B4215826C9C}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -17538,7 +17538,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -17546,7 +17546,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -17554,7 +17554,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -17562,7 +17562,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -17570,7 +17570,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B6">
         <v>5</v>
